--- a/postman-json-demo/src/main/resources/template.xlsx
+++ b/postman-json-demo/src/main/resources/template.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Projects\Java\postman-json-to-document\postman-json-demo\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD070A6F-129C-4FAE-ADBB-DFE9851FD4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F6A2FE-4D77-4349-ADA0-37B194A1C9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5148" yWindow="1464" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6864" yWindow="1668" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="post" sheetId="1" r:id="rId1"/>
+    <sheet name="template" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +148,30 @@
   </si>
   <si>
     <t>{requestParameters.mandatory}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{responseSuccessExample}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{responseFailExample}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{responseParameters.index}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{responseParameters.key}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{responseParameters.description}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{responseParameters.type}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -257,12 +281,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -276,19 +294,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,7 +597,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -590,107 +614,107 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
@@ -727,54 +751,58 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="A15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="A17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
@@ -783,24 +811,31 @@
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="4"/>
+      <c r="A20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A17:E17"/>
@@ -820,6 +855,7 @@
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
